--- a/Plan/План разработки  сайта ProgramLego.xlsx
+++ b/Plan/План разработки  сайта ProgramLego.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Desktop\PortableGit\ProgramLego\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0464CA4E-972C-4287-853C-2D6F29F80629}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
   </bookViews>
   <sheets>
     <sheet name="Диаграмма Ганта" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -52,13 +51,7 @@
     <t>Максименко</t>
   </si>
   <si>
-    <t>Дергачь</t>
-  </si>
-  <si>
     <t>Воронов ответственный за проектирование</t>
-  </si>
-  <si>
-    <t>Дергачь ответсвенный за веб-дизайнер</t>
   </si>
   <si>
     <t xml:space="preserve">Черепенько ответственный за наполнение сайта </t>
@@ -93,11 +86,17 @@
   <si>
     <t>План работы по проекту разработка сайта Program Lego</t>
   </si>
+  <si>
+    <t>Дергач</t>
+  </si>
+  <si>
+    <t>Дергач ответсвенный за веб-дизайнер</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -939,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -949,37 +948,37 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.140625" customWidth="1"/>
+    <col min="1" max="1" width="67.109375" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="21" width="10.28515625" customWidth="1"/>
-    <col min="22" max="23" width="10.140625" customWidth="1"/>
-    <col min="24" max="26" width="10.28515625" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" customWidth="1"/>
-    <col min="28" max="30" width="10.28515625" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" customWidth="1"/>
-    <col min="32" max="35" width="10.28515625" customWidth="1"/>
-    <col min="36" max="37" width="10.140625" customWidth="1"/>
-    <col min="38" max="39" width="10.28515625" customWidth="1"/>
-    <col min="40" max="64" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" customWidth="1"/>
+    <col min="16" max="21" width="10.33203125" customWidth="1"/>
+    <col min="22" max="23" width="10.109375" customWidth="1"/>
+    <col min="24" max="26" width="10.33203125" customWidth="1"/>
+    <col min="27" max="27" width="10.44140625" customWidth="1"/>
+    <col min="28" max="30" width="10.33203125" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" customWidth="1"/>
+    <col min="32" max="35" width="10.33203125" customWidth="1"/>
+    <col min="36" max="37" width="10.109375" customWidth="1"/>
+    <col min="38" max="39" width="10.33203125" customWidth="1"/>
+    <col min="40" max="64" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1047,7 +1046,7 @@
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
     </row>
-    <row r="2" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1166,7 @@
       </c>
       <c r="AN2" s="17"/>
     </row>
-    <row r="3" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
@@ -1209,12 +1208,12 @@
       <c r="AM3" s="21"/>
       <c r="AN3" s="17"/>
     </row>
-    <row r="4" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="26">
@@ -1223,10 +1222,10 @@
       <c r="K4" s="34"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
       <c r="B5" s="23" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="27">
@@ -1235,10 +1234,10 @@
       <c r="K5" s="34"/>
       <c r="AN5" s="17"/>
     </row>
-    <row r="6" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="49"/>
       <c r="B6" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="32">
@@ -1247,10 +1246,10 @@
       <c r="K6" s="34"/>
       <c r="AN6" s="17"/>
     </row>
-    <row r="7" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="49"/>
       <c r="B7" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="38">
@@ -1261,7 +1260,7 @@
       <c r="K7" s="34"/>
       <c r="AN7" s="17"/>
     </row>
-    <row r="8" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>7</v>
       </c>
@@ -1277,10 +1276,10 @@
       <c r="K8" s="34"/>
       <c r="AN8" s="17"/>
     </row>
-    <row r="9" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="50"/>
       <c r="B9" s="33" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="43">
@@ -1291,7 +1290,7 @@
       <c r="K9" s="34"/>
       <c r="AN9" s="17"/>
     </row>
-    <row r="10" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="40" t="s">
         <v>9</v>
@@ -1306,10 +1305,10 @@
       <c r="K10" s="34"/>
       <c r="AN10" s="17"/>
     </row>
-    <row r="11" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="38">
@@ -1320,9 +1319,9 @@
       <c r="K11" s="34"/>
       <c r="AN11" s="17"/>
     </row>
-    <row r="12" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>8</v>
@@ -1337,12 +1336,12 @@
       <c r="K12" s="34"/>
       <c r="AN12" s="17"/>
     </row>
-    <row r="13" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13">
@@ -1354,7 +1353,7 @@
       <c r="K13" s="34"/>
       <c r="AN13" s="17"/>
     </row>
-    <row r="14" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
       <c r="B14" s="31" t="s">
         <v>8</v>
@@ -1369,9 +1368,9 @@
       <c r="K14" s="34"/>
       <c r="AN14" s="17"/>
     </row>
-    <row r="15" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>8</v>
@@ -1383,10 +1382,10 @@
       <c r="K15" s="34"/>
       <c r="AN15" s="17"/>
     </row>
-    <row r="16" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="30" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C16" s="36"/>
       <c r="E16" s="26">
@@ -1403,77 +1402,77 @@
       <c r="K16" s="34"/>
       <c r="AN16" s="17"/>
     </row>
-    <row r="17" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="36"/>
       <c r="K17" s="34"/>
       <c r="AN17" s="17"/>
     </row>
-    <row r="18" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="36"/>
       <c r="K18" s="34"/>
       <c r="AN18" s="17"/>
     </row>
-    <row r="19" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="36"/>
       <c r="K19" s="34"/>
       <c r="AN19" s="17"/>
     </row>
-    <row r="20" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
       <c r="C20" s="36"/>
       <c r="K20" s="34"/>
       <c r="AN20" s="17"/>
     </row>
-    <row r="21" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C21" s="36"/>
       <c r="K21" s="34"/>
       <c r="AN21" s="17"/>
     </row>
-    <row r="22" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C22" s="36"/>
       <c r="K22" s="34"/>
       <c r="AN22" s="17"/>
     </row>
-    <row r="23" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C23" s="36"/>
       <c r="K23" s="34"/>
       <c r="AN23" s="17"/>
     </row>
-    <row r="24" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C24" s="36"/>
       <c r="K24" s="34"/>
       <c r="AN24" s="17"/>
     </row>
-    <row r="25" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C25" s="36"/>
       <c r="K25" s="34"/>
       <c r="AN25" s="17"/>
     </row>
-    <row r="26" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C26" s="36"/>
       <c r="K26" s="34"/>
       <c r="AN26" s="17"/>
     </row>
-    <row r="27" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C27" s="36"/>
       <c r="K27" s="34"/>
       <c r="AN27" s="17"/>
     </row>
-    <row r="28" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C28" s="36"/>
       <c r="K28" s="34"/>
       <c r="AN28" s="17"/>
     </row>
-    <row r="29" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C29" s="36"/>
       <c r="D29" s="8"/>
       <c r="E29" s="7"/>
@@ -1513,7 +1512,7 @@
       <c r="AM29" s="7"/>
       <c r="AN29" s="17"/>
     </row>
-    <row r="30" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C30" s="36"/>
       <c r="D30" s="8"/>
       <c r="E30" s="7"/>
@@ -1553,7 +1552,7 @@
       <c r="AM30" s="7"/>
       <c r="AN30" s="17"/>
     </row>
-    <row r="31" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C31" s="36"/>
       <c r="D31" s="8"/>
       <c r="E31" s="7"/>
@@ -1617,7 +1616,7 @@
       <c r="BK31" s="11"/>
       <c r="BL31" s="11"/>
     </row>
-    <row r="32" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36"/>
       <c r="D32" s="8"/>
       <c r="E32" s="7"/>
@@ -1681,7 +1680,7 @@
       <c r="BK32" s="16"/>
       <c r="BL32" s="16"/>
     </row>
-    <row r="33" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C33" s="36"/>
       <c r="D33" s="8"/>
       <c r="E33" s="7"/>
@@ -1745,7 +1744,7 @@
       <c r="BK33" s="16"/>
       <c r="BL33" s="16"/>
     </row>
-    <row r="34" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C34" s="36"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -1809,7 +1808,7 @@
       <c r="BK34" s="16"/>
       <c r="BL34" s="16"/>
     </row>
-    <row r="35" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:65" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C35" s="12"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -1873,7 +1872,7 @@
       <c r="BK35" s="16"/>
       <c r="BL35" s="16"/>
     </row>
-    <row r="36" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C36" s="14" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +1938,7 @@
       <c r="BK36" s="16"/>
       <c r="BL36" s="16"/>
     </row>
-    <row r="37" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>4</v>
       </c>
@@ -2005,10 +2004,10 @@
       <c r="BK37" s="16"/>
       <c r="BL37" s="16"/>
     </row>
-    <row r="38" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
@@ -2072,10 +2071,10 @@
       <c r="BK38" s="16"/>
       <c r="BL38" s="16"/>
     </row>
-    <row r="39" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="34"/>
       <c r="B39" s="23" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
@@ -2140,10 +2139,10 @@
       <c r="BL39" s="37"/>
       <c r="BM39" s="37"/>
     </row>
-    <row r="40" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="34"/>
       <c r="B40" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
@@ -2208,10 +2207,10 @@
       <c r="BL40" s="37"/>
       <c r="BM40" s="37"/>
     </row>
-    <row r="41" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
@@ -2251,7 +2250,7 @@
       <c r="AM41" s="16"/>
       <c r="AN41" s="16"/>
     </row>
-    <row r="42" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -2293,7 +2292,7 @@
       <c r="AM42" s="16"/>
       <c r="AN42" s="16"/>
     </row>
-    <row r="43" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="34"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
@@ -2337,7 +2336,7 @@
       <c r="AM43" s="37"/>
       <c r="AN43" s="37"/>
     </row>
-    <row r="44" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
@@ -2370,24 +2369,24 @@
       <c r="AM44" s="37"/>
       <c r="AN44" s="37"/>
     </row>
-    <row r="45" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
     </row>
-    <row r="46" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
     </row>
-    <row r="47" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
     </row>
-    <row r="48" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
     </row>
   </sheetData>

--- a/Plan/План разработки  сайта ProgramLego.xlsx
+++ b/Plan/План разработки  сайта ProgramLego.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Desktop\PortableGit\ProgramLego\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Desktop\PortableGit\hello\ProgramLego\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -948,7 +948,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1344,9 +1344,6 @@
         <v>22</v>
       </c>
       <c r="C13" s="36"/>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13" s="27">
         <v>2</v>
       </c>
@@ -1359,9 +1356,6 @@
         <v>8</v>
       </c>
       <c r="C14" s="36"/>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14" s="26">
         <v>1</v>
       </c>

--- a/Plan/План разработки  сайта ProgramLego.xlsx
+++ b/Plan/План разработки  сайта ProgramLego.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Desktop\PortableGit\hello\ProgramLego\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Test1\ProgramLego\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1704BDC1-A33A-4D4D-9E37-86C196896E60}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Диаграмма Ганта" sheetId="1" r:id="rId1"/>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -938,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -948,35 +949,35 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.109375" customWidth="1"/>
+    <col min="1" max="1" width="67.140625" customWidth="1"/>
     <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="21" width="10.33203125" customWidth="1"/>
-    <col min="22" max="23" width="10.109375" customWidth="1"/>
-    <col min="24" max="26" width="10.33203125" customWidth="1"/>
-    <col min="27" max="27" width="10.44140625" customWidth="1"/>
-    <col min="28" max="30" width="10.33203125" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" customWidth="1"/>
-    <col min="32" max="35" width="10.33203125" customWidth="1"/>
-    <col min="36" max="37" width="10.109375" customWidth="1"/>
-    <col min="38" max="39" width="10.33203125" customWidth="1"/>
-    <col min="40" max="64" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="23" width="10.140625" customWidth="1"/>
+    <col min="24" max="26" width="10.28515625" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" customWidth="1"/>
+    <col min="28" max="30" width="10.28515625" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" customWidth="1"/>
+    <col min="32" max="35" width="10.28515625" customWidth="1"/>
+    <col min="36" max="37" width="10.140625" customWidth="1"/>
+    <col min="38" max="39" width="10.28515625" customWidth="1"/>
+    <col min="40" max="64" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1046,7 +1047,7 @@
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
     </row>
-    <row r="2" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1167,7 @@
       </c>
       <c r="AN2" s="17"/>
     </row>
-    <row r="3" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
@@ -1208,7 +1209,7 @@
       <c r="AM3" s="21"/>
       <c r="AN3" s="17"/>
     </row>
-    <row r="4" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
@@ -1222,7 +1223,7 @@
       <c r="K4" s="34"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="23" t="s">
         <v>23</v>
@@ -1234,7 +1235,7 @@
       <c r="K5" s="34"/>
       <c r="AN5" s="17"/>
     </row>
-    <row r="6" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="28" t="s">
         <v>12</v>
@@ -1246,7 +1247,7 @@
       <c r="K6" s="34"/>
       <c r="AN6" s="17"/>
     </row>
-    <row r="7" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="24" t="s">
         <v>11</v>
@@ -1260,7 +1261,7 @@
       <c r="K7" s="34"/>
       <c r="AN7" s="17"/>
     </row>
-    <row r="8" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>7</v>
       </c>
@@ -1276,7 +1277,7 @@
       <c r="K8" s="34"/>
       <c r="AN8" s="17"/>
     </row>
-    <row r="9" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
       <c r="B9" s="33" t="s">
         <v>22</v>
@@ -1290,7 +1291,7 @@
       <c r="K9" s="34"/>
       <c r="AN9" s="17"/>
     </row>
-    <row r="10" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
       <c r="B10" s="40" t="s">
         <v>9</v>
@@ -1305,7 +1306,7 @@
       <c r="K10" s="34"/>
       <c r="AN10" s="17"/>
     </row>
-    <row r="11" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
       <c r="B11" s="24" t="s">
         <v>18</v>
@@ -1319,7 +1320,7 @@
       <c r="K11" s="34"/>
       <c r="AN11" s="17"/>
     </row>
-    <row r="12" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>13</v>
       </c>
@@ -1336,7 +1337,7 @@
       <c r="K12" s="34"/>
       <c r="AN12" s="17"/>
     </row>
-    <row r="13" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>14</v>
       </c>
@@ -1344,25 +1345,31 @@
         <v>22</v>
       </c>
       <c r="C13" s="36"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13" s="27">
         <v>2</v>
       </c>
       <c r="K13" s="34"/>
       <c r="AN13" s="17"/>
     </row>
-    <row r="14" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
       <c r="B14" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="36"/>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14" s="26">
         <v>1</v>
       </c>
       <c r="K14" s="34"/>
       <c r="AN14" s="17"/>
     </row>
-    <row r="15" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +1383,7 @@
       <c r="K15" s="34"/>
       <c r="AN15" s="17"/>
     </row>
-    <row r="16" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
       <c r="B16" s="30" t="s">
         <v>22</v>
@@ -1396,7 +1403,7 @@
       <c r="K16" s="34"/>
       <c r="AN16" s="17"/>
     </row>
-    <row r="17" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>19</v>
       </c>
@@ -1404,7 +1411,7 @@
       <c r="K17" s="34"/>
       <c r="AN17" s="17"/>
     </row>
-    <row r="18" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>20</v>
       </c>
@@ -1412,7 +1419,7 @@
       <c r="K18" s="34"/>
       <c r="AN18" s="17"/>
     </row>
-    <row r="19" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>16</v>
       </c>
@@ -1420,53 +1427,53 @@
       <c r="K19" s="34"/>
       <c r="AN19" s="17"/>
     </row>
-    <row r="20" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="C20" s="36"/>
       <c r="K20" s="34"/>
       <c r="AN20" s="17"/>
     </row>
-    <row r="21" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="36"/>
       <c r="K21" s="34"/>
       <c r="AN21" s="17"/>
     </row>
-    <row r="22" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="36"/>
       <c r="K22" s="34"/>
       <c r="AN22" s="17"/>
     </row>
-    <row r="23" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="36"/>
       <c r="K23" s="34"/>
       <c r="AN23" s="17"/>
     </row>
-    <row r="24" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="36"/>
       <c r="K24" s="34"/>
       <c r="AN24" s="17"/>
     </row>
-    <row r="25" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="36"/>
       <c r="K25" s="34"/>
       <c r="AN25" s="17"/>
     </row>
-    <row r="26" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="36"/>
       <c r="K26" s="34"/>
       <c r="AN26" s="17"/>
     </row>
-    <row r="27" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="36"/>
       <c r="K27" s="34"/>
       <c r="AN27" s="17"/>
     </row>
-    <row r="28" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="36"/>
       <c r="K28" s="34"/>
       <c r="AN28" s="17"/>
     </row>
-    <row r="29" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="36"/>
       <c r="D29" s="8"/>
       <c r="E29" s="7"/>
@@ -1506,7 +1513,7 @@
       <c r="AM29" s="7"/>
       <c r="AN29" s="17"/>
     </row>
-    <row r="30" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="36"/>
       <c r="D30" s="8"/>
       <c r="E30" s="7"/>
@@ -1546,7 +1553,7 @@
       <c r="AM30" s="7"/>
       <c r="AN30" s="17"/>
     </row>
-    <row r="31" spans="1:64" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="36"/>
       <c r="D31" s="8"/>
       <c r="E31" s="7"/>
@@ -1610,7 +1617,7 @@
       <c r="BK31" s="11"/>
       <c r="BL31" s="11"/>
     </row>
-    <row r="32" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36"/>
       <c r="D32" s="8"/>
       <c r="E32" s="7"/>
@@ -1674,7 +1681,7 @@
       <c r="BK32" s="16"/>
       <c r="BL32" s="16"/>
     </row>
-    <row r="33" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="36"/>
       <c r="D33" s="8"/>
       <c r="E33" s="7"/>
@@ -1738,7 +1745,7 @@
       <c r="BK33" s="16"/>
       <c r="BL33" s="16"/>
     </row>
-    <row r="34" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="36"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -1802,7 +1809,7 @@
       <c r="BK34" s="16"/>
       <c r="BL34" s="16"/>
     </row>
-    <row r="35" spans="1:65" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C35" s="12"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -1866,7 +1873,7 @@
       <c r="BK35" s="16"/>
       <c r="BL35" s="16"/>
     </row>
-    <row r="36" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="14" t="s">
         <v>5</v>
       </c>
@@ -1932,7 +1939,7 @@
       <c r="BK36" s="16"/>
       <c r="BL36" s="16"/>
     </row>
-    <row r="37" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>4</v>
       </c>
@@ -1998,7 +2005,7 @@
       <c r="BK37" s="16"/>
       <c r="BL37" s="16"/>
     </row>
-    <row r="38" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
       <c r="B38" s="22" t="s">
         <v>10</v>
@@ -2065,7 +2072,7 @@
       <c r="BK38" s="16"/>
       <c r="BL38" s="16"/>
     </row>
-    <row r="39" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:65" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
       <c r="B39" s="23" t="s">
         <v>23</v>
@@ -2133,7 +2140,7 @@
       <c r="BL39" s="37"/>
       <c r="BM39" s="37"/>
     </row>
-    <row r="40" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
       <c r="B40" s="28" t="s">
         <v>12</v>
@@ -2201,7 +2208,7 @@
       <c r="BL40" s="37"/>
       <c r="BM40" s="37"/>
     </row>
-    <row r="41" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
       <c r="B41" s="24" t="s">
         <v>11</v>
@@ -2244,7 +2251,7 @@
       <c r="AM41" s="16"/>
       <c r="AN41" s="16"/>
     </row>
-    <row r="42" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -2286,7 +2293,7 @@
       <c r="AM42" s="16"/>
       <c r="AN42" s="16"/>
     </row>
-    <row r="43" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
@@ -2330,7 +2337,7 @@
       <c r="AM43" s="37"/>
       <c r="AN43" s="37"/>
     </row>
-    <row r="44" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
@@ -2363,24 +2370,24 @@
       <c r="AM44" s="37"/>
       <c r="AN44" s="37"/>
     </row>
-    <row r="45" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34"/>
     </row>
-    <row r="46" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="34"/>
     </row>
-    <row r="47" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
     </row>
-    <row r="48" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="34"/>
     </row>
   </sheetData>

--- a/Plan/План разработки  сайта ProgramLego.xlsx
+++ b/Plan/План разработки  сайта ProgramLego.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Test1\ProgramLego\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1704BDC1-A33A-4D4D-9E37-86C196896E60}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C56B34D-078E-4497-8D9B-E4AC5E25A2A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
-  <si>
-    <t>Дни</t>
-  </si>
-  <si>
-    <t>Задача</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="25">
   <si>
     <t>Исполнитель</t>
   </si>
@@ -46,12 +40,6 @@
     <t>Создание календарного плана</t>
   </si>
   <si>
-    <t>Воронов</t>
-  </si>
-  <si>
-    <t>Максименко</t>
-  </si>
-  <si>
     <t>Воронов ответственный за проектирование</t>
   </si>
   <si>
@@ -67,16 +55,10 @@
     <t>Выбор шаблона</t>
   </si>
   <si>
-    <t>Выбор основных разделов на сайте</t>
-  </si>
-  <si>
     <t>Оформление основных разделов сайта</t>
   </si>
   <si>
     <t>Выбор темы и названия проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Черепенько </t>
   </si>
   <si>
     <t>Создание основных разделов на сайте</t>
@@ -88,10 +70,31 @@
     <t>План работы по проекту разработка сайта Program Lego</t>
   </si>
   <si>
-    <t>Дергач</t>
+    <t>Дергач ответсвенный за веб-дизайнер</t>
   </si>
   <si>
-    <t>Дергач ответсвенный за веб-дизайнер</t>
+    <t xml:space="preserve">Создание структуры сайта </t>
+  </si>
+  <si>
+    <t>Воронов ответственный за проектирование-веб-дизайн</t>
+  </si>
+  <si>
+    <t>Доработка шаблона под задачи сайта</t>
+  </si>
+  <si>
+    <t>Планирование структуры сайта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестирование работы сайта </t>
+  </si>
+  <si>
+    <t>Сдача проекта</t>
+  </si>
+  <si>
+    <t>Зеленый-выполнено</t>
+  </si>
+  <si>
+    <t>Красный - не выполнено</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,38 +213,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FFE4DFEC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -250,8 +223,32 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF09A9A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -497,38 +494,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF666666"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top/>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -543,10 +516,10 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -574,47 +547,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="6" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -626,9 +617,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF09A9A"/>
       <color rgb="FFE75F5F"/>
       <color rgb="FFE34545"/>
-      <color rgb="FFF09A9A"/>
       <color rgb="FF93F2FF"/>
     </mruColors>
   </colors>
@@ -943,49 +934,56 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM49"/>
+  <dimension ref="A1:BM51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="67.140625" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="21" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="21" width="10.28515625" customWidth="1"/>
     <col min="22" max="23" width="10.140625" customWidth="1"/>
     <col min="24" max="26" width="10.28515625" customWidth="1"/>
     <col min="27" max="27" width="10.42578125" customWidth="1"/>
     <col min="28" max="30" width="10.28515625" customWidth="1"/>
     <col min="31" max="31" width="10.42578125" customWidth="1"/>
     <col min="32" max="35" width="10.28515625" customWidth="1"/>
-    <col min="36" max="37" width="10.140625" customWidth="1"/>
-    <col min="38" max="39" width="10.28515625" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" customWidth="1"/>
+    <col min="37" max="37" width="18.140625" customWidth="1"/>
+    <col min="38" max="38" width="20.7109375" customWidth="1"/>
+    <col min="39" max="39" width="20.5703125" customWidth="1"/>
     <col min="40" max="64" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1047,514 +1045,543 @@
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
     </row>
-    <row r="2" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="50"/>
+      <c r="S2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+    </row>
+    <row r="3" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="37"/>
+      <c r="AX3" s="37"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37"/>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="37"/>
+    </row>
+    <row r="4" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="45">
+      <c r="D4" s="31">
         <v>43777</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E4" s="30">
         <v>43778</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F4" s="30">
         <v>43779</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G4" s="30">
         <v>43780</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H4" s="30">
         <v>43781</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I4" s="30">
         <v>43782</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J4" s="30">
         <v>43783</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K4" s="33">
         <v>43784</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L4" s="30">
         <v>43785</v>
       </c>
-      <c r="M2" s="44">
+      <c r="M4" s="30">
         <v>43786</v>
       </c>
-      <c r="N2" s="44">
+      <c r="N4" s="30">
         <v>43787</v>
       </c>
-      <c r="O2" s="44">
+      <c r="O4" s="30">
         <v>43788</v>
       </c>
-      <c r="P2" s="44">
+      <c r="P4" s="30">
         <v>43789</v>
       </c>
-      <c r="Q2" s="44">
+      <c r="Q4" s="30">
         <v>43790</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R4" s="30">
         <v>43791</v>
       </c>
-      <c r="S2" s="44">
+      <c r="S4" s="30">
         <v>43792</v>
       </c>
-      <c r="T2" s="44">
+      <c r="T4" s="30">
         <v>43793</v>
       </c>
-      <c r="U2" s="44">
+      <c r="U4" s="30">
         <v>43794</v>
       </c>
-      <c r="V2" s="44">
+      <c r="V4" s="30">
         <v>43795</v>
       </c>
-      <c r="W2" s="44">
+      <c r="W4" s="30">
         <v>43796</v>
       </c>
-      <c r="X2" s="44">
+      <c r="X4" s="30">
         <v>43797</v>
       </c>
-      <c r="Y2" s="44">
+      <c r="Y4" s="30">
         <v>43798</v>
       </c>
-      <c r="Z2" s="44">
+      <c r="Z4" s="30">
         <v>43799</v>
       </c>
-      <c r="AA2" s="44">
+      <c r="AA4" s="30">
         <v>43800</v>
       </c>
-      <c r="AB2" s="44">
+      <c r="AB4" s="30">
         <v>43801</v>
       </c>
-      <c r="AC2" s="44">
+      <c r="AC4" s="30">
         <v>43802</v>
       </c>
-      <c r="AD2" s="44">
+      <c r="AD4" s="30">
         <v>43803</v>
       </c>
-      <c r="AE2" s="44">
+      <c r="AE4" s="30">
         <v>43804</v>
       </c>
-      <c r="AF2" s="44">
+      <c r="AF4" s="30">
         <v>43805</v>
       </c>
-      <c r="AG2" s="44">
+      <c r="AG4" s="30">
         <v>43806</v>
       </c>
-      <c r="AH2" s="44">
+      <c r="AH4" s="30">
         <v>43807</v>
       </c>
-      <c r="AI2" s="44">
+      <c r="AI4" s="30">
         <v>43808</v>
       </c>
-      <c r="AJ2" s="44">
+      <c r="AJ4" s="30">
         <v>43809</v>
       </c>
-      <c r="AK2" s="44">
+      <c r="AK4" s="30">
         <v>43810</v>
       </c>
-      <c r="AL2" s="44">
+      <c r="AL4" s="30">
         <v>43811</v>
       </c>
-      <c r="AM2" s="46">
+      <c r="AM4" s="32">
         <v>43812</v>
       </c>
-      <c r="AN2" s="17"/>
-    </row>
-    <row r="3" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="17"/>
-    </row>
-    <row r="4" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="26">
-        <v>2</v>
-      </c>
-      <c r="K4" s="34"/>
       <c r="AN4" s="17"/>
     </row>
     <row r="5" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="17"/>
+    </row>
+    <row r="6" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="AN6" s="17"/>
+    </row>
+    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="AN7" s="17"/>
+    </row>
+    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="AN8" s="17"/>
+    </row>
+    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="AN9" s="17"/>
+    </row>
+    <row r="10" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="AN10" s="17"/>
+    </row>
+    <row r="11" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="AN11" s="17"/>
+    </row>
+    <row r="12" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="27">
-        <v>2</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="AN5" s="17"/>
-    </row>
-    <row r="6" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="32">
-        <v>2</v>
-      </c>
-      <c r="K6" s="34"/>
-      <c r="AN6" s="17"/>
-    </row>
-    <row r="7" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="38">
-        <v>2</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="AN7" s="17"/>
-    </row>
-    <row r="8" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="42">
-        <v>1</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="AN8" s="17"/>
-    </row>
-    <row r="9" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="43">
-        <v>1</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="AN9" s="17"/>
-    </row>
-    <row r="10" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="41">
-        <v>1</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="AN10" s="17"/>
-    </row>
-    <row r="11" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38">
-        <v>1</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="AN11" s="17"/>
-    </row>
-    <row r="12" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="26">
-        <v>2</v>
-      </c>
-      <c r="K12" s="34"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="K12" s="25"/>
       <c r="AN12" s="17"/>
     </row>
     <row r="13" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27">
-        <v>2</v>
-      </c>
-      <c r="K13" s="34"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="AN13" s="17"/>
     </row>
     <row r="14" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="26">
-        <v>1</v>
-      </c>
-      <c r="K14" s="34"/>
+      <c r="A14" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="AN14" s="17"/>
     </row>
     <row r="15" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="E15" s="26">
-        <v>1</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="AN15" s="17"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="AM15" s="17"/>
     </row>
     <row r="16" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="E16" s="26">
-        <v>1</v>
-      </c>
-      <c r="F16" s="27">
-        <v>1</v>
-      </c>
-      <c r="G16" s="27">
-        <v>2</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="AN16" s="17"/>
-    </row>
-    <row r="17" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="K17" s="34"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="AM16" s="17"/>
+    </row>
+    <row r="17" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
       <c r="AN17" s="17"/>
     </row>
-    <row r="18" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="K18" s="34"/>
+    <row r="18" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="C18" s="27"/>
+      <c r="K18" s="25"/>
       <c r="AN18" s="17"/>
     </row>
-    <row r="19" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="K19" s="34"/>
+    <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="C19" s="27"/>
+      <c r="K19" s="25"/>
       <c r="AN19" s="17"/>
     </row>
-    <row r="20" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="C20" s="36"/>
-      <c r="K20" s="34"/>
+    <row r="20" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="C20" s="27"/>
+      <c r="K20" s="25"/>
       <c r="AN20" s="17"/>
     </row>
-    <row r="21" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C21" s="36"/>
-      <c r="K21" s="34"/>
+    <row r="21" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="C21" s="27"/>
+      <c r="K21" s="25"/>
       <c r="AN21" s="17"/>
     </row>
-    <row r="22" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C22" s="36"/>
-      <c r="K22" s="34"/>
+    <row r="22" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="C22" s="27"/>
+      <c r="K22" s="25"/>
       <c r="AN22" s="17"/>
     </row>
-    <row r="23" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="36"/>
-      <c r="K23" s="34"/>
+    <row r="23" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="C23" s="27"/>
+      <c r="K23" s="25"/>
       <c r="AN23" s="17"/>
     </row>
-    <row r="24" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" s="36"/>
-      <c r="K24" s="34"/>
+    <row r="24" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="C24" s="27"/>
+      <c r="K24" s="25"/>
       <c r="AN24" s="17"/>
     </row>
-    <row r="25" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C25" s="36"/>
-      <c r="K25" s="34"/>
+    <row r="25" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25" s="27"/>
+      <c r="K25" s="25"/>
       <c r="AN25" s="17"/>
     </row>
-    <row r="26" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" s="36"/>
-      <c r="K26" s="34"/>
+    <row r="26" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="C26" s="27"/>
+      <c r="K26" s="25"/>
       <c r="AN26" s="17"/>
     </row>
-    <row r="27" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" s="36"/>
-      <c r="K27" s="34"/>
+    <row r="27" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="C27" s="27"/>
+      <c r="K27" s="25"/>
       <c r="AN27" s="17"/>
     </row>
-    <row r="28" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C28" s="36"/>
-      <c r="K28" s="34"/>
+    <row r="28" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="C28" s="27"/>
+      <c r="K28" s="25"/>
       <c r="AN28" s="17"/>
     </row>
-    <row r="29" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C29" s="36"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
+    <row r="29" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="C29" s="27"/>
+      <c r="K29" s="25"/>
       <c r="AN29" s="17"/>
     </row>
-    <row r="30" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C30" s="36"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
+    <row r="30" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="C30" s="27"/>
+      <c r="K30" s="25"/>
       <c r="AN30" s="17"/>
     </row>
-    <row r="31" spans="1:64" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="36"/>
+    <row r="31" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="C31" s="27"/>
       <c r="D31" s="8"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1562,7 +1589,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="34"/>
+      <c r="K31" s="25"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -1592,33 +1619,9 @@
       <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="17"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
-      <c r="AQ31" s="11"/>
-      <c r="AR31" s="11"/>
-      <c r="AS31" s="11"/>
-      <c r="AT31" s="11"/>
-      <c r="AU31" s="11"/>
-      <c r="AV31" s="11"/>
-      <c r="AW31" s="11"/>
-      <c r="AX31" s="11"/>
-      <c r="AY31" s="11"/>
-      <c r="AZ31" s="11"/>
-      <c r="BA31" s="11"/>
-      <c r="BB31" s="11"/>
-      <c r="BC31" s="11"/>
-      <c r="BD31" s="11"/>
-      <c r="BE31" s="11"/>
-      <c r="BF31" s="11"/>
-      <c r="BG31" s="11"/>
-      <c r="BH31" s="11"/>
-      <c r="BI31" s="11"/>
-      <c r="BJ31" s="11"/>
-      <c r="BK31" s="11"/>
-      <c r="BL31" s="11"/>
-    </row>
-    <row r="32" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="36"/>
+    </row>
+    <row r="32" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="C32" s="27"/>
       <c r="D32" s="8"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -1626,7 +1629,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="34"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -1656,33 +1659,9 @@
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="17"/>
-      <c r="AO32" s="16"/>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="16"/>
-      <c r="AR32" s="16"/>
-      <c r="AS32" s="16"/>
-      <c r="AT32" s="16"/>
-      <c r="AU32" s="16"/>
-      <c r="AV32" s="16"/>
-      <c r="AW32" s="16"/>
-      <c r="AX32" s="16"/>
-      <c r="AY32" s="16"/>
-      <c r="AZ32" s="16"/>
-      <c r="BA32" s="16"/>
-      <c r="BB32" s="16"/>
-      <c r="BC32" s="16"/>
-      <c r="BD32" s="16"/>
-      <c r="BE32" s="16"/>
-      <c r="BF32" s="16"/>
-      <c r="BG32" s="16"/>
-      <c r="BH32" s="16"/>
-      <c r="BI32" s="16"/>
-      <c r="BJ32" s="16"/>
-      <c r="BK32" s="16"/>
-      <c r="BL32" s="16"/>
     </row>
     <row r="33" spans="1:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="C33" s="36"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="8"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -1690,7 +1669,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="34"/>
+      <c r="K33" s="25"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -1720,69 +1699,69 @@
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="17"/>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="16"/>
-      <c r="AS33" s="16"/>
-      <c r="AT33" s="16"/>
-      <c r="AU33" s="16"/>
-      <c r="AV33" s="16"/>
-      <c r="AW33" s="16"/>
-      <c r="AX33" s="16"/>
-      <c r="AY33" s="16"/>
-      <c r="AZ33" s="16"/>
-      <c r="BA33" s="16"/>
-      <c r="BB33" s="16"/>
-      <c r="BC33" s="16"/>
-      <c r="BD33" s="16"/>
-      <c r="BE33" s="16"/>
-      <c r="BF33" s="16"/>
-      <c r="BG33" s="16"/>
-      <c r="BH33" s="16"/>
-      <c r="BI33" s="16"/>
-      <c r="BJ33" s="16"/>
-      <c r="BK33" s="16"/>
-      <c r="BL33" s="16"/>
-    </row>
-    <row r="34" spans="1:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="C34" s="36"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="11"/>
+      <c r="BE33" s="11"/>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="11"/>
+      <c r="BH33" s="11"/>
+      <c r="BI33" s="11"/>
+      <c r="BJ33" s="11"/>
+      <c r="BK33" s="11"/>
+      <c r="BL33" s="11"/>
+    </row>
+    <row r="34" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="27"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
       <c r="AN34" s="17"/>
       <c r="AO34" s="16"/>
       <c r="AP34" s="16"/>
@@ -1809,45 +1788,45 @@
       <c r="BK34" s="16"/>
       <c r="BL34" s="16"/>
     </row>
-    <row r="35" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C35" s="12"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
-      <c r="AI35" s="11"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="11"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="11"/>
+    <row r="35" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="C35" s="27"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="17"/>
       <c r="AO35" s="16"/>
       <c r="AP35" s="16"/>
       <c r="AQ35" s="16"/>
@@ -1874,46 +1853,44 @@
       <c r="BL35" s="16"/>
     </row>
     <row r="36" spans="1:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="C36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="16"/>
-      <c r="AG36" s="16"/>
-      <c r="AH36" s="16"/>
-      <c r="AI36" s="16"/>
-      <c r="AJ36" s="16"/>
-      <c r="AK36" s="16"/>
-      <c r="AL36" s="16"/>
-      <c r="AM36" s="16"/>
-      <c r="AN36" s="16"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="17"/>
       <c r="AO36" s="16"/>
       <c r="AP36" s="16"/>
       <c r="AQ36" s="16"/>
@@ -1939,47 +1916,45 @@
       <c r="BK36" s="16"/>
       <c r="BL36" s="16"/>
     </row>
-    <row r="37" spans="1:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="16"/>
-      <c r="AK37" s="16"/>
-      <c r="AL37" s="16"/>
-      <c r="AM37" s="16"/>
-      <c r="AN37" s="16"/>
+    <row r="37" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C37" s="12"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
       <c r="AO37" s="16"/>
       <c r="AP37" s="16"/>
       <c r="AQ37" s="16"/>
@@ -2006,9 +1981,8 @@
       <c r="BL37" s="16"/>
     </row>
     <row r="38" spans="1:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="22" t="s">
-        <v>10</v>
+      <c r="C38" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
@@ -2073,9 +2047,8 @@
       <c r="BL38" s="16"/>
     </row>
     <row r="39" spans="1:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="23" t="s">
-        <v>23</v>
+      <c r="B39" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
@@ -2114,36 +2087,35 @@
       <c r="AL39" s="16"/>
       <c r="AM39" s="16"/>
       <c r="AN39" s="16"/>
-      <c r="AO39" s="37"/>
-      <c r="AP39" s="37"/>
-      <c r="AQ39" s="37"/>
-      <c r="AR39" s="37"/>
-      <c r="AS39" s="37"/>
-      <c r="AT39" s="37"/>
-      <c r="AU39" s="37"/>
-      <c r="AV39" s="37"/>
-      <c r="AW39" s="37"/>
-      <c r="AX39" s="37"/>
-      <c r="AY39" s="37"/>
-      <c r="AZ39" s="37"/>
-      <c r="BA39" s="37"/>
-      <c r="BB39" s="37"/>
-      <c r="BC39" s="37"/>
-      <c r="BD39" s="37"/>
-      <c r="BE39" s="37"/>
-      <c r="BF39" s="37"/>
-      <c r="BG39" s="37"/>
-      <c r="BH39" s="37"/>
-      <c r="BI39" s="37"/>
-      <c r="BJ39" s="37"/>
-      <c r="BK39" s="37"/>
-      <c r="BL39" s="37"/>
-      <c r="BM39" s="37"/>
-    </row>
-    <row r="40" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="28" t="s">
-        <v>12</v>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="16"/>
+      <c r="AT39" s="16"/>
+      <c r="AU39" s="16"/>
+      <c r="AV39" s="16"/>
+      <c r="AW39" s="16"/>
+      <c r="AX39" s="16"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="16"/>
+      <c r="BA39" s="16"/>
+      <c r="BB39" s="16"/>
+      <c r="BC39" s="16"/>
+      <c r="BD39" s="16"/>
+      <c r="BE39" s="16"/>
+      <c r="BF39" s="16"/>
+      <c r="BG39" s="16"/>
+      <c r="BH39" s="16"/>
+      <c r="BI39" s="16"/>
+      <c r="BJ39" s="16"/>
+      <c r="BK39" s="16"/>
+      <c r="BL39" s="16"/>
+    </row>
+    <row r="40" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
@@ -2182,36 +2154,35 @@
       <c r="AL40" s="16"/>
       <c r="AM40" s="16"/>
       <c r="AN40" s="16"/>
-      <c r="AO40" s="37"/>
-      <c r="AP40" s="37"/>
-      <c r="AQ40" s="37"/>
-      <c r="AR40" s="37"/>
-      <c r="AS40" s="37"/>
-      <c r="AT40" s="37"/>
-      <c r="AU40" s="37"/>
-      <c r="AV40" s="37"/>
-      <c r="AW40" s="37"/>
-      <c r="AX40" s="37"/>
-      <c r="AY40" s="37"/>
-      <c r="AZ40" s="37"/>
-      <c r="BA40" s="37"/>
-      <c r="BB40" s="37"/>
-      <c r="BC40" s="37"/>
-      <c r="BD40" s="37"/>
-      <c r="BE40" s="37"/>
-      <c r="BF40" s="37"/>
-      <c r="BG40" s="37"/>
-      <c r="BH40" s="37"/>
-      <c r="BI40" s="37"/>
-      <c r="BJ40" s="37"/>
-      <c r="BK40" s="37"/>
-      <c r="BL40" s="37"/>
-      <c r="BM40" s="37"/>
-    </row>
-    <row r="41" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="24" t="s">
-        <v>11</v>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="16"/>
+      <c r="AQ40" s="16"/>
+      <c r="AR40" s="16"/>
+      <c r="AS40" s="16"/>
+      <c r="AT40" s="16"/>
+      <c r="AU40" s="16"/>
+      <c r="AV40" s="16"/>
+      <c r="AW40" s="16"/>
+      <c r="AX40" s="16"/>
+      <c r="AY40" s="16"/>
+      <c r="AZ40" s="16"/>
+      <c r="BA40" s="16"/>
+      <c r="BB40" s="16"/>
+      <c r="BC40" s="16"/>
+      <c r="BD40" s="16"/>
+      <c r="BE40" s="16"/>
+      <c r="BF40" s="16"/>
+      <c r="BG40" s="16"/>
+      <c r="BH40" s="16"/>
+      <c r="BI40" s="16"/>
+      <c r="BJ40" s="16"/>
+      <c r="BK40" s="16"/>
+      <c r="BL40" s="16"/>
+    </row>
+    <row r="41" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
@@ -2250,18 +2221,44 @@
       <c r="AL41" s="16"/>
       <c r="AM41" s="16"/>
       <c r="AN41" s="16"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
+      <c r="AQ41" s="28"/>
+      <c r="AR41" s="28"/>
+      <c r="AS41" s="28"/>
+      <c r="AT41" s="28"/>
+      <c r="AU41" s="28"/>
+      <c r="AV41" s="28"/>
+      <c r="AW41" s="28"/>
+      <c r="AX41" s="28"/>
+      <c r="AY41" s="28"/>
+      <c r="AZ41" s="28"/>
+      <c r="BA41" s="28"/>
+      <c r="BB41" s="28"/>
+      <c r="BC41" s="28"/>
+      <c r="BD41" s="28"/>
+      <c r="BE41" s="28"/>
+      <c r="BF41" s="28"/>
+      <c r="BG41" s="28"/>
+      <c r="BH41" s="28"/>
+      <c r="BI41" s="28"/>
+      <c r="BJ41" s="28"/>
+      <c r="BK41" s="28"/>
+      <c r="BL41" s="28"/>
+      <c r="BM41" s="28"/>
     </row>
     <row r="42" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
@@ -2292,111 +2289,232 @@
       <c r="AL42" s="16"/>
       <c r="AM42" s="16"/>
       <c r="AN42" s="16"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="28"/>
+      <c r="AR42" s="28"/>
+      <c r="AS42" s="28"/>
+      <c r="AT42" s="28"/>
+      <c r="AU42" s="28"/>
+      <c r="AV42" s="28"/>
+      <c r="AW42" s="28"/>
+      <c r="AX42" s="28"/>
+      <c r="AY42" s="28"/>
+      <c r="AZ42" s="28"/>
+      <c r="BA42" s="28"/>
+      <c r="BB42" s="28"/>
+      <c r="BC42" s="28"/>
+      <c r="BD42" s="28"/>
+      <c r="BE42" s="28"/>
+      <c r="BF42" s="28"/>
+      <c r="BG42" s="28"/>
+      <c r="BH42" s="28"/>
+      <c r="BI42" s="28"/>
+      <c r="BJ42" s="28"/>
+      <c r="BK42" s="28"/>
+      <c r="BL42" s="28"/>
+      <c r="BM42" s="28"/>
     </row>
     <row r="43" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="37"/>
-      <c r="AE43" s="37"/>
-      <c r="AF43" s="37"/>
-      <c r="AG43" s="37"/>
-      <c r="AH43" s="37"/>
-      <c r="AI43" s="37"/>
-      <c r="AJ43" s="37"/>
-      <c r="AK43" s="37"/>
-      <c r="AL43" s="37"/>
-      <c r="AM43" s="37"/>
-      <c r="AN43" s="37"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
+      <c r="AL43" s="16"/>
+      <c r="AM43" s="16"/>
+      <c r="AN43" s="16"/>
     </row>
     <row r="44" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="37"/>
-      <c r="AM44" s="37"/>
-      <c r="AN44" s="37"/>
-    </row>
-    <row r="45" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
-    </row>
-    <row r="46" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="16"/>
+      <c r="AM44" s="16"/>
+      <c r="AN44" s="16"/>
+    </row>
+    <row r="45" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28"/>
+      <c r="AN45" s="28"/>
+    </row>
+    <row r="46" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28"/>
+      <c r="AN46" s="28"/>
     </row>
     <row r="47" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="A47" s="25"/>
     </row>
     <row r="48" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
+      <c r="A48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
+  <mergeCells count="16">
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="S2:V3"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AE3"/>
+    <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="AK2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
